--- a/Instances/G5041553_Lumpy_b2_fe0_en_rk0_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/G5041553_Lumpy_b2_fe0_en_rk0_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1839,6 +1839,41 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,6 +2415,41 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
